--- a/bip1271_opt_data.xlsx
+++ b/bip1271_opt_data.xlsx
@@ -2825,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>

--- a/bip1271_opt_data.xlsx
+++ b/bip1271_opt_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>X</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Nov-20</t>
   </si>
   <si>
-    <t xml:space="preserve">          croston_1271  SBA_1271  SBJ_1271 SES_bip1271</t>
-  </si>
-  <si>
     <t>SES</t>
   </si>
   <si>
@@ -189,22 +186,13 @@
     <t>MAE variation</t>
   </si>
   <si>
-    <t xml:space="preserve">ME_1271       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAE_1271     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMSE_1271    </t>
+    <t>Error size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,7 +247,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2823,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3327,7 @@
         <v>-13.98453608462335</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3367,7 +3359,7 @@
         <v>26.558056202779571</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3399,7 +3391,7 @@
         <v>24.931211483360411</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3431,7 +3423,7 @@
         <v>-10.167185797365271</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3463,7 +3455,7 @@
         <v>-23.864582156584731</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3495,7 +3487,7 @@
         <v>19.887342268408791</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3527,7 +3519,7 @@
         <v>21.42734337686537</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3559,7 +3551,7 @@
         <v>-18.5328935715957</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3591,7 +3583,7 @@
         <v>-2.5128598077186379</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3623,7 +3615,7 @@
         <v>-7.6966083773677454</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3655,7 +3647,7 @@
         <v>-3.1965215927489581</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3687,7 +3679,7 @@
         <v>6.8418034718703993</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3719,7 +3711,7 @@
         <v>-8.3806173145737297</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3762,11 +3754,8 @@
       <c r="P29">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="R29" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3798,22 +3787,19 @@
         <v>-9.5720493223186587</v>
       </c>
       <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
         <v>47</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>48</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>49</v>
       </c>
-      <c r="P30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3845,7 +3831,7 @@
         <v>-5.4627636682871739</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="2">
         <v>2.6796150000000001</v>
@@ -3859,11 +3845,8 @@
       <c r="P31" s="2">
         <v>2.4009550000000002</v>
       </c>
-      <c r="R31" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3895,7 +3878,7 @@
         <v>-8.6882959306872447</v>
       </c>
       <c r="L32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M32" s="2">
         <v>13.580219</v>
@@ -3908,9 +3891,6 @@
       </c>
       <c r="P32" s="2">
         <v>12.142946999999999</v>
-      </c>
-      <c r="R32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3945,7 +3925,7 @@
         <v>21.13392039787658</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M33" s="2">
         <v>16.884156999999998</v>
@@ -3960,7 +3940,7 @@
         <v>15.732476999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3991,21 +3971,24 @@
       <c r="J34">
         <v>-13.731004060185411</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4">
-        <f>(M33-N33)/N33</f>
-        <v>6.9374012236377444E-2</v>
-      </c>
-      <c r="O34" s="4">
-        <f>(M33-O33)/O33</f>
-        <v>6.6347157065589302E-2</v>
-      </c>
-      <c r="P34" s="4">
-        <f>(M33-P33)/P33</f>
-        <v>7.3203984343978318E-2</v>
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2">
+        <f>M33-M32</f>
+        <v>3.3039379999999987</v>
+      </c>
+      <c r="N34" s="2">
+        <f>N33-N32</f>
+        <v>3.5513300000000001</v>
+      </c>
+      <c r="O34" s="2">
+        <f>O33-O32</f>
+        <v>3.5247740000000007</v>
+      </c>
+      <c r="P34" s="2">
+        <f>P33-P32</f>
+        <v>3.5895299999999999</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -4039,17 +4022,13 @@
       <c r="J35">
         <v>-9.2707664974478199</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4">
-        <f>(N33-O33)/O33</f>
-        <v>-2.8304925462496371E-3</v>
-      </c>
-      <c r="P35" s="4">
-        <f>(N33-P33)/P33</f>
-        <v>3.5815084935449989E-3</v>
-      </c>
+      <c r="L35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4082,16 +4061,24 @@
       <c r="J36">
         <v>34.740653555014653</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4">
-        <f>(O33-P33)/P33</f>
-        <v>6.4302016777142883E-3</v>
+      <c r="L36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <f>(M33-N33)/N33</f>
+        <v>6.9374012236377444E-2</v>
+      </c>
+      <c r="O36" s="5">
+        <f>(M33-O33)/O33</f>
+        <v>6.6347157065589302E-2</v>
+      </c>
+      <c r="P36" s="5">
+        <f>(M33-P33)/P33</f>
+        <v>7.3203984343978318E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4122,20 +4109,21 @@
       <c r="J37">
         <v>42.455858411050713</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="4">
-        <f>(M32-N32)/N32</f>
-        <v>0.10972230995351735</v>
-      </c>
-      <c r="O37" s="4">
-        <f>(M32-O32)/O32</f>
-        <v>0.10328758148801032</v>
-      </c>
-      <c r="P37" s="4">
-        <f>(M32-P32)/P32</f>
-        <v>0.11836270058660391</v>
+      <c r="L37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="5">
+        <f>(N33-M33)/M33</f>
+        <v>-6.4873478729201448E-2</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
+        <f>(N33-O33)/O33</f>
+        <v>-2.8304925462496371E-3</v>
+      </c>
+      <c r="P37" s="5">
+        <f>(N33-P33)/P33</f>
+        <v>3.5815084935449989E-3</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4151,17 +4139,24 @@
       <c r="F38">
         <v>21.985949999999999</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="O38" s="4">
-        <f>(N32-O32)/O32</f>
-        <v>-5.7985032902299416E-3</v>
-      </c>
-      <c r="P38" s="4">
-        <f>(N32-P32)/P32</f>
-        <v>7.7860835594523413E-3</v>
+      <c r="L38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="5">
+        <f>(O33-M33)/M33</f>
+        <v>-6.2219096872884891E-2</v>
+      </c>
+      <c r="N38" s="5">
+        <f>(O33-N33)/N33</f>
+        <v>2.838526975696675E-3</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5">
+        <f>(O33-P33)/P33</f>
+        <v>6.4302016777142883E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>31.335059999999999</v>
       </c>
@@ -4174,11 +4169,22 @@
       <c r="F39">
         <v>21.985949999999999</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="P39" s="4">
-        <f>(O32-P32)/P32</f>
-        <v>1.3663816534816514E-2</v>
-      </c>
+      <c r="L39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="5">
+        <f>(P33-M33)/M33</f>
+        <v>-6.8210690056956888E-2</v>
+      </c>
+      <c r="N39" s="5">
+        <f>(P33-N33)/N33</f>
+        <v>-3.5687270672425256E-3</v>
+      </c>
+      <c r="O39" s="5">
+        <f>(P33-O33)/O33</f>
+        <v>-6.3891183581287333E-3</v>
+      </c>
+      <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -4193,6 +4199,13 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
+      <c r="L40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -4207,6 +4220,22 @@
       <c r="F41">
         <v>21.985949999999999</v>
       </c>
+      <c r="L41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="5">
+        <f>(M32-N32)/N32</f>
+        <v>0.10972230995351735</v>
+      </c>
+      <c r="O41" s="5">
+        <f>(M32-O32)/O32</f>
+        <v>0.10328758148801032</v>
+      </c>
+      <c r="P41" s="5">
+        <f>(M32-P32)/P32</f>
+        <v>0.11836270058660391</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -4221,11 +4250,63 @@
       <c r="F42">
         <v>21.985949999999999</v>
       </c>
+      <c r="L42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="5">
+        <f>(N32-M32)/M32</f>
+        <v>-9.8873663230320444E-2</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="5">
+        <f>(N32-O32)/O32</f>
+        <v>-5.7985032902299416E-3</v>
+      </c>
+      <c r="P42" s="5">
+        <f>(N32-P32)/P32</f>
+        <v>7.7860835594523413E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="5">
+        <f>(O32-M32)/M32</f>
+        <v>-9.3618004245734146E-2</v>
+      </c>
+      <c r="N43" s="5">
+        <f>(O32-N32)/N32</f>
+        <v>5.8323220287030573E-3</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="5">
+        <f>(O32-P32)/P32</f>
+        <v>1.3663816534816514E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" s="5">
+        <f>(P32-M32)/M32</f>
+        <v>-0.1058357011768367</v>
+      </c>
+      <c r="N44" s="5">
+        <f>(P32-N32)/N32</f>
+        <v>-7.725928831992069E-3</v>
+      </c>
+      <c r="O44" s="5">
+        <f>(P32-O32)/O32</f>
+        <v>-1.3479633298469624E-2</v>
+      </c>
+      <c r="P44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="L35:P35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/bip1271_opt_data.xlsx
+++ b/bip1271_opt_data.xlsx
@@ -285,7 +285,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Croston's and Exponential Smoothing forecasts of item BIP001271, optimal alpha</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11247727208890804"/>
+          <c:y val="1.7710309930423784E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2817,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,17 +3779,17 @@
       <c r="J29">
         <v>-15.65834413035868</v>
       </c>
-      <c r="M29">
-        <v>0.32479999999999998</v>
-      </c>
-      <c r="N29">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="O29">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="P29">
-        <v>9.1399999999999995E-2</v>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -3786,17 +3823,17 @@
       <c r="J30">
         <v>-9.5720493223186587</v>
       </c>
-      <c r="M30" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" t="s">
-        <v>49</v>
+      <c r="M30">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="N30">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="O30">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="P30">
+        <v>9.1399999999999995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
